--- a/JVM/类与字节码加载篇/字节码指令执行过程.xlsx
+++ b/JVM/类与字节码加载篇/字节码指令执行过程.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347"/>
+    <workbookView windowWidth="22368" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="局部变量压栈指令" sheetId="1" r:id="rId1"/>
+    <sheet name="出栈装入局部变量表指令" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t xml:space="preserve"> 0 getstatic #2 &lt;java/lang/System.out : Ljava/io/PrintStream;&gt;
  3 iload_1
@@ -79,16 +80,80 @@
   <si>
     <t>this</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 0 iload_1
+ 1 iconst_2
+ 2 iadd
+ 3 istore 4
+ 5 ldc2_w #13 &lt;12&gt;
+ 8 lstore 5
+10 ldc #15 &lt;atguigu&gt;
+12 astore 7
+14 ldc #16 &lt;10.0&gt;
+16 fstore 8
+18 ldc2_w #17 &lt;10.0&gt;
+21 dstore_2
+22 return
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void store(int k, double d) {
+        int m = k + 2;
+        long l = 12;
+        String str = "atguigu";
+        float f = 10.0F;
+        d = 10;
+    }</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>atguigu</t>
+  </si>
+  <si>
+    <t>k+2</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>两个数出栈相加，为了表示方便，这里就不出栈了</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>虽然写的是变量名，但实际上是具体的值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -118,15 +183,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +242,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,8 +297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,100 +314,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,176 +532,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -495,6 +560,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -547,22 +623,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -583,17 +659,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,24 +685,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,6 +693,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +737,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,17 +877,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,19 +889,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1249,7 @@
   <sheetPr/>
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -1197,6 +1291,288 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:13">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="16"/>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="L20" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B2:J17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1210,6 +1586,9 @@
       <c r="M5" t="s">
         <v>1</v>
       </c>
+      <c r="O5" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
@@ -1265,7 +1644,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1305,7 +1684,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="2"/>
@@ -1318,7 +1699,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -1332,7 +1713,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="L15" s="9" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -1345,8 +1726,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="10" t="s">
-        <v>4</v>
+      <c r="L16" s="9">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -1359,14 +1740,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="12:12">
-      <c r="L18" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
+      <c r="L18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -1388,44 +1771,61 @@
       <c r="I19" t="s">
         <v>12</v>
       </c>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
       <c r="L19" s="9" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:12">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="L20" s="13"/>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B2:J17"/>
+    <mergeCell ref="O5:S15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
